--- a/results/3M7N-1/pareto_front.xlsx
+++ b/results/3M7N-1/pareto_front.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,1,2,3,6,4,5</t>
+          <t>0,1,2,3,4,5,6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,14 +498,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1986</v>
+        <v>1554</v>
       </c>
       <c r="C3" t="n">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1,0,2,3,4,6,5</t>
+          <t>0,1,2,3,5,6,4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0]</t>
+          <t>[1 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 1]</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1782</v>
+        <v>1986</v>
       </c>
       <c r="C4" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3,0,1,2,4,6,5</t>
+          <t>1,0,2,3,4,6,5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,14 +550,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2130</v>
+        <v>1782</v>
       </c>
       <c r="C5" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3,6,0,1,2,4,5</t>
+          <t>3,0,1,2,4,6,5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,24 +576,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1554</v>
+        <v>2082</v>
       </c>
       <c r="C6" t="n">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,1,6,4,3,2,5</t>
+          <t>6,3,0,1,2,4,5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>mutation:&lt;lambda&gt;</t>
+          <t>mutation:LocalSearch_Operators.right_shift</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[1 0 0],[0 0 0],[0 0 1],[0 0 0],[0 0 1],[0 1 0],[0 0 0]</t>
+          <t>[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0]</t>
         </is>
       </c>
     </row>
@@ -602,14 +602,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2250</v>
+        <v>2550</v>
       </c>
       <c r="C7" t="n">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3,1,0,2,5,6,4</t>
+          <t>3,6,1,0,2,5,4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,14 +628,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2550</v>
+        <v>2202</v>
       </c>
       <c r="C8" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3,6,1,0,2,5,4</t>
+          <t>3,1,0,2,5,6,4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -759,13 +759,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -787,13 +787,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -801,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -829,13 +829,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -843,13 +843,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -857,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -874,10 +874,10 @@
         <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>41</v>
@@ -899,13 +899,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -913,13 +913,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
+        <v>48</v>
+      </c>
+      <c r="D18" t="n">
         <v>55</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -927,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -955,10 +955,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C21" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D21" t="n">
         <v>85</v>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
         <v>70</v>
@@ -983,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
         <v>41</v>
@@ -1025,13 +1025,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1053,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C28" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -1067,13 +1067,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1095,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
@@ -1109,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C32" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -1137,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -1151,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D35" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
         <v>41</v>
@@ -1199,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -1207,10 +1207,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="n">
         <v>53</v>
@@ -1227,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1235,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D41" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -1249,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C42" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" t="n">
         <v>59</v>
@@ -1263,13 +1263,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
@@ -1277,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>41</v>
@@ -1305,10 +1305,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C46" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" t="n">
         <v>53</v>
@@ -1319,13 +1319,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48">
@@ -1333,13 +1333,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C48" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -1347,13 +1347,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50">
@@ -1361,13 +1361,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
         <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1480,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1508,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1522,13 +1522,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -1536,13 +1536,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1550,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -1564,13 +1564,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1578,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
+        <v>63</v>
+      </c>
+      <c r="D14" t="n">
         <v>70</v>
-      </c>
-      <c r="D14" t="n">
-        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1595,10 +1595,10 @@
         <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1606,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>30</v>
@@ -1620,13 +1620,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -1634,13 +1634,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -1648,13 +1648,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1676,10 +1676,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D21" t="n">
         <v>79</v>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C22" t="n">
         <v>62</v>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
         <v>30</v>
@@ -1746,13 +1746,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1774,13 +1774,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -1788,13 +1788,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -1802,13 +1802,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -1816,13 +1816,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -1830,13 +1830,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C32" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D32" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -1844,13 +1844,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -1858,13 +1858,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C34" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35">
@@ -1872,13 +1872,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C35" t="n">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D35" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -1886,13 +1886,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -1900,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
         <v>30</v>
@@ -1920,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -1928,10 +1928,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" t="n">
         <v>51</v>
@@ -1948,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -1956,13 +1956,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D41" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -1970,10 +1970,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" t="n">
         <v>53</v>
@@ -1984,13 +1984,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
@@ -1998,7 +1998,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="n">
         <v>30</v>
@@ -2026,10 +2026,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C46" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" t="n">
         <v>51</v>
@@ -2040,13 +2040,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
@@ -2054,13 +2054,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D48" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -2068,13 +2068,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50">
@@ -2082,13 +2082,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/results/3M7N-1/pareto_front.xlsx
+++ b/results/3M7N-1/pareto_front.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,19 +472,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1566</v>
+        <v>2202</v>
       </c>
       <c r="C2" t="n">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,1,2,3,4,5,6</t>
+          <t>3,1,0,2,5,6,4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mutation:&lt;lambda&gt;</t>
+          <t>mutation:LocalSearch_Operators.right_shift</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,24 +498,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1554</v>
+        <v>2550</v>
       </c>
       <c r="C3" t="n">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,1,2,3,5,6,4</t>
+          <t>3,6,1,0,2,5,4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mutation:&lt;lambda&gt;</t>
+          <t>mutation:LocalSearch_Operators.right_shift</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 1]</t>
+          <t>[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0]</t>
         </is>
       </c>
     </row>
@@ -524,24 +524,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1986</v>
+        <v>1554</v>
       </c>
       <c r="C4" t="n">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1,0,2,3,4,6,5</t>
+          <t>0,1,2,3,5,4,6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>mutation:LocalSearch_Operators.right_shift</t>
+          <t>mutation:&lt;lambda&gt;</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0]</t>
+          <t>[1 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0]</t>
         </is>
       </c>
     </row>
@@ -550,14 +550,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1782</v>
+        <v>1566</v>
       </c>
       <c r="C5" t="n">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3,0,1,2,4,6,5</t>
+          <t>0,1,2,3,5,4,6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,14 +576,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2082</v>
+        <v>1782</v>
       </c>
       <c r="C6" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6,3,0,1,2,4,5</t>
+          <t>3,0,2,1,4,6,5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -602,14 +602,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2550</v>
+        <v>2082</v>
       </c>
       <c r="C7" t="n">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3,6,1,0,2,5,4</t>
+          <t>3,6,0,1,2,4,5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,24 +628,76 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2202</v>
+        <v>1986</v>
       </c>
       <c r="C8" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3,1,0,2,5,6,4</t>
+          <t>1,0,2,3,4,6,5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Destroy&amp;Rebuild+RightShift</t>
+          <t>mutation:LocalSearch_Operators.right_shift</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0],[0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C9" t="n">
+        <v>205</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3,0,2,1,4,5,6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>mutation:&lt;lambda&gt;</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[1 0 0],[0 0 0],[0 0 0],[0 0 1],[0 0 0],[0 0 0],[1 1 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C10" t="n">
+        <v>174</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3,6,1,0,2,5,4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>mutation:&lt;lambda&gt;</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[1 0 0],[0 0 0],[0 0 0],[0 0 1],[0 0 0],[0 0 0],[0 0 0]</t>
         </is>
       </c>
     </row>
@@ -660,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>41</v>
@@ -703,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -717,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -731,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -745,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
         <v>78</v>
@@ -759,13 +811,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -773,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
+        <v>53</v>
+      </c>
+      <c r="C8" t="n">
         <v>61</v>
       </c>
-      <c r="C8" t="n">
-        <v>82</v>
-      </c>
       <c r="D8" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -787,13 +839,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -801,13 +853,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -815,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -829,13 +881,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -843,13 +895,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -857,13 +909,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -871,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -885,13 +937,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -899,13 +951,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -913,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -927,13 +979,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -941,13 +993,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -955,13 +1007,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D21" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -972,10 +1024,10 @@
         <v>62</v>
       </c>
       <c r="C22" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -997,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
         <v>48</v>
@@ -1011,13 +1063,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="n">
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -1025,13 +1077,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1039,13 +1091,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -1053,13 +1105,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D28" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -1067,13 +1119,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C29" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -1095,13 +1147,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C31" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1109,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D32" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
@@ -1151,13 +1203,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C35" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D35" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -1165,13 +1217,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -1193,13 +1245,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D38" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
@@ -1207,13 +1259,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C39" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
@@ -1221,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -1235,13 +1287,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C41" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D41" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -1249,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C42" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D42" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -1263,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -1305,13 +1357,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -1319,13 +1371,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D47" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
@@ -1333,13 +1385,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C48" t="n">
+        <v>62</v>
+      </c>
+      <c r="D48" t="n">
         <v>70</v>
-      </c>
-      <c r="D48" t="n">
-        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -1347,13 +1399,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D49" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -1361,13 +1413,209 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
+        <v>62</v>
+      </c>
+      <c r="C50" t="n">
+        <v>70</v>
+      </c>
+      <c r="D50" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="n">
+        <v>31</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42</v>
+      </c>
+      <c r="D51" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="n">
+        <v>47</v>
+      </c>
+      <c r="C52" t="n">
+        <v>56</v>
+      </c>
+      <c r="D52" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="n">
+        <v>40</v>
+      </c>
+      <c r="C53" t="n">
+        <v>49</v>
+      </c>
+      <c r="D53" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="n">
+        <v>57</v>
+      </c>
+      <c r="C55" t="n">
+        <v>63</v>
+      </c>
+      <c r="D55" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="n">
+        <v>59</v>
+      </c>
+      <c r="C56" t="n">
+        <v>67</v>
+      </c>
+      <c r="D56" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="n">
+        <v>71</v>
+      </c>
+      <c r="C57" t="n">
+        <v>79</v>
+      </c>
+      <c r="D57" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="n">
+        <v>31</v>
+      </c>
+      <c r="C58" t="n">
+        <v>42</v>
+      </c>
+      <c r="D58" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="n">
+        <v>23</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30</v>
+      </c>
+      <c r="D59" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40</v>
+      </c>
+      <c r="C60" t="n">
+        <v>49</v>
+      </c>
+      <c r="D60" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>15</v>
+      </c>
+      <c r="D61" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>8</v>
+      </c>
+      <c r="B62" t="n">
+        <v>52</v>
+      </c>
+      <c r="C62" t="n">
+        <v>59</v>
+      </c>
+      <c r="D62" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8</v>
+      </c>
+      <c r="B63" t="n">
+        <v>42</v>
+      </c>
+      <c r="C63" t="n">
         <v>53</v>
       </c>
-      <c r="C50" t="n">
-        <v>61</v>
-      </c>
-      <c r="D50" t="n">
-        <v>70</v>
+      <c r="D63" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>8</v>
+      </c>
+      <c r="B64" t="n">
+        <v>13</v>
+      </c>
+      <c r="C64" t="n">
+        <v>23</v>
+      </c>
+      <c r="D64" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
@@ -1424,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -1438,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1452,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1466,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
         <v>70</v>
@@ -1480,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1494,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1508,13 +1756,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1522,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1536,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -1550,13 +1798,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1564,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D13" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -1578,13 +1826,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
+        <v>41</v>
+      </c>
+      <c r="C14" t="n">
         <v>49</v>
       </c>
-      <c r="C14" t="n">
-        <v>63</v>
-      </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1592,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -1606,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1620,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1634,13 +1882,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1648,13 +1896,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1662,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D20" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -1676,13 +1924,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1693,10 +1941,10 @@
         <v>61</v>
       </c>
       <c r="C22" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1718,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
         <v>41</v>
@@ -1732,13 +1980,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
         <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -1746,13 +1994,13 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -1760,13 +2008,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C27" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D27" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -1774,13 +2022,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -1788,13 +2036,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -1816,13 +2064,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D31" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -1830,13 +2078,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -1872,13 +2120,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D35" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -1886,13 +2134,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D36" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -1914,13 +2162,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
@@ -1928,13 +2176,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -1942,13 +2190,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -1956,13 +2204,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C41" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D41" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
@@ -1970,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D42" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -1984,13 +2232,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -2026,13 +2274,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
@@ -2040,13 +2288,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D47" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -2054,13 +2302,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D48" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49">
@@ -2068,13 +2316,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C49" t="n">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
@@ -2082,13 +2330,209 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
+        <v>61</v>
+      </c>
+      <c r="C50" t="n">
+        <v>62</v>
+      </c>
+      <c r="D50" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="n">
+        <v>30</v>
+      </c>
+      <c r="C51" t="n">
+        <v>31</v>
+      </c>
+      <c r="D51" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="n">
+        <v>40</v>
+      </c>
+      <c r="C52" t="n">
+        <v>49</v>
+      </c>
+      <c r="D52" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="n">
+        <v>31</v>
+      </c>
+      <c r="C53" t="n">
+        <v>42</v>
+      </c>
+      <c r="D53" t="n">
         <v>52</v>
       </c>
-      <c r="C50" t="n">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="n">
+        <v>47</v>
+      </c>
+      <c r="C55" t="n">
+        <v>57</v>
+      </c>
+      <c r="D55" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="n">
+        <v>57</v>
+      </c>
+      <c r="C56" t="n">
+        <v>63</v>
+      </c>
+      <c r="D56" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="n">
+        <v>70</v>
+      </c>
+      <c r="C57" t="n">
+        <v>71</v>
+      </c>
+      <c r="D57" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31</v>
+      </c>
+      <c r="D58" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16</v>
+      </c>
+      <c r="C59" t="n">
+        <v>23</v>
+      </c>
+      <c r="D59" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>31</v>
+      </c>
+      <c r="C60" t="n">
+        <v>42</v>
+      </c>
+      <c r="D60" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>8</v>
+      </c>
+      <c r="B62" t="n">
+        <v>42</v>
+      </c>
+      <c r="C62" t="n">
         <v>53</v>
       </c>
-      <c r="D50" t="n">
-        <v>61</v>
+      <c r="D62" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>8</v>
+      </c>
+      <c r="B63" t="n">
+        <v>40</v>
+      </c>
+      <c r="C63" t="n">
+        <v>49</v>
+      </c>
+      <c r="D63" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>8</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15</v>
+      </c>
+      <c r="D64" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
